--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graham\OneDrive\School\AER201\Microcontroller\AER201-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{EEEF18AE-DE91-4603-9547-00E4E7D6FC1B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{0CD60280-4BD6-4426-94D1-121A5AC8F42A}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{EEEF18AE-DE91-4603-9547-00E4E7D6FC1B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{10501321-D7BD-4F64-B774-24BE95E29A0D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="8850" xr2:uid="{0CEDB9DF-02B1-4D78-8925-5C8AC9A9C78C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17563" windowHeight="8854" xr2:uid="{0CEDB9DF-02B1-4D78-8925-5C8AC9A9C78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>PIC</t>
   </si>
@@ -328,33 +328,15 @@
     <t>D12</t>
   </si>
   <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
     <t>D8</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -392,6 +374,30 @@
   </si>
   <si>
     <t>IR Reflection sensor</t>
+  </si>
+  <si>
+    <t>IR Debugging</t>
+  </si>
+  <si>
+    <t>NEMA nEnable</t>
+  </si>
+  <si>
+    <t>~D11</t>
+  </si>
+  <si>
+    <t>~D10</t>
+  </si>
+  <si>
+    <t>~D9</t>
+  </si>
+  <si>
+    <t>~D6</t>
+  </si>
+  <si>
+    <t>~D5</t>
+  </si>
+  <si>
+    <t>~D3</t>
   </si>
 </sst>
 </file>
@@ -763,26 +769,26 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3828125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3828125" customWidth="1"/>
+    <col min="12" max="12" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -828,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,7 +860,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>84</v>
@@ -862,7 +868,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,12 +893,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -917,16 +923,16 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -952,19 +958,19 @@
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,18 +991,22 @@
         <v>72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1016,19 +1026,23 @@
       <c r="H8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1049,16 +1063,16 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1079,16 +1093,16 @@
         <v>62</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1115,16 +1129,16 @@
         <v>61</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1147,16 +1161,16 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,16 +1193,16 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1216,7 +1230,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1258,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,12 +1279,12 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1293,12 +1307,12 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1316,7 +1330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1332,7 +1346,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>

--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graham\OneDrive\School\AER201\Microcontroller\AER201-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{EEEF18AE-DE91-4603-9547-00E4E7D6FC1B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{10501321-D7BD-4F64-B774-24BE95E29A0D}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{EEEF18AE-DE91-4603-9547-00E4E7D6FC1B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{DD656ABE-376B-4591-9BE0-FBAB9DDB2775}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17563" windowHeight="8854" xr2:uid="{0CEDB9DF-02B1-4D78-8925-5C8AC9A9C78C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15634" windowHeight="8854" xr2:uid="{0CEDB9DF-02B1-4D78-8925-5C8AC9A9C78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="109">
   <si>
     <t>PIC</t>
   </si>
@@ -358,9 +358,6 @@
     <t>NEMA Step Pin</t>
   </si>
   <si>
-    <t>28BYJ Stepper</t>
-  </si>
-  <si>
     <t>DC speed control</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>~D3</t>
+  </si>
+  <si>
+    <t>PIC-Arduino nDone</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -842,7 +842,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -860,13 +860,17 @@
         <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -893,7 +897,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -906,7 +910,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
@@ -923,14 +927,10 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -940,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -949,7 +949,7 @@
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>71</v>
@@ -958,25 +958,21 @@
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>26</v>
@@ -985,7 +981,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>72</v>
@@ -994,7 +990,7 @@
         <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>85</v>
@@ -1003,7 +999,7 @@
         <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
@@ -1013,7 +1009,9 @@
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>73</v>
@@ -1030,7 +1028,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>86</v>
@@ -1060,17 +1058,19 @@
       <c r="H9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -1093,7 +1093,7 @@
         <v>62</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>45</v>
@@ -1134,9 +1134,7 @@
       <c r="L11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -1161,14 +1159,12 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -1210,7 +1206,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
@@ -1299,7 +1295,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>81</v>
@@ -1338,7 +1334,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
